--- a/03.12-14.12.xlsx
+++ b/03.12-14.12.xlsx
@@ -74,6 +74,30 @@
           </rPr>
           <t xml:space="preserve">
 с учетом вычета на английский</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+не пошла на английский</t>
         </r>
       </text>
     </comment>
@@ -216,19 +240,19 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,7 +543,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,32 +577,32 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="9">
         <v>6.75</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <v>7</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="9">
         <v>3.25</v>
       </c>
       <c r="K3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="9">
         <v>3</v>
       </c>
       <c r="M3" s="6">
@@ -586,53 +610,53 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="6"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>6.75</v>
       </c>
       <c r="E6" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
       <c r="K6" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>4.25</v>
       </c>
       <c r="M6" s="6">
@@ -640,24 +664,24 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="1">
         <v>0.875</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -686,37 +710,37 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>4.75</v>
       </c>
       <c r="E11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="9">
         <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="9">
         <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>0.375</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="9">
         <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="9">
         <v>3.25</v>
       </c>
       <c r="M11" s="6">
@@ -724,71 +748,99 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1">
         <v>0.8125</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>4.75</v>
       </c>
       <c r="E14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F14" s="7">
-        <v>6</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1">
-        <v>0.8125</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="7"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B3:B4"/>
@@ -803,20 +855,6 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/03.12-14.12.xlsx
+++ b/03.12-14.12.xlsx
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -234,16 +241,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -252,9 +262,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
@@ -543,7 +551,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="M14" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,32 +585,32 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>6.75</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>7</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <v>3.25</v>
       </c>
       <c r="K3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="5">
         <v>3</v>
       </c>
       <c r="M3" s="6">
@@ -610,53 +618,53 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="6"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>6.75</v>
       </c>
       <c r="E6" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>7</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="7">
         <v>5</v>
       </c>
       <c r="K6" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>4.25</v>
       </c>
       <c r="M6" s="6">
@@ -664,24 +672,24 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="1">
         <v>0.875</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -710,37 +718,37 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>4.75</v>
       </c>
       <c r="E11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>0.375</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="5">
         <v>3.25</v>
       </c>
       <c r="M11" s="6">
@@ -748,85 +756,107 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1">
         <v>0.8125</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>4.75</v>
       </c>
       <c r="E14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>5.5</v>
       </c>
       <c r="G14" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>3.5</v>
       </c>
       <c r="I14" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="7">
         <v>3</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="K14" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L14" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="M14" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="L15" s="7"/>
       <c r="M15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="B14:B15"/>
@@ -841,20 +871,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/03.12-14.12.xlsx
+++ b/03.12-14.12.xlsx
@@ -247,13 +247,11 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -262,7 +260,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
@@ -591,29 +591,29 @@
       <c r="C3" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="10">
         <v>6.75</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>7</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="10">
         <v>3.25</v>
       </c>
       <c r="K3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="10">
         <v>3</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>20</v>
       </c>
     </row>
@@ -622,24 +622,24 @@
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -651,28 +651,28 @@
       <c r="E6" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>5</v>
       </c>
       <c r="K6" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>4.25</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -680,17 +680,17 @@
       <c r="E7" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1">
         <v>0.875</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -724,34 +724,34 @@
       <c r="C11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="10">
         <v>4.75</v>
       </c>
       <c r="E11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="10">
         <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="10">
         <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>0.375</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="10">
         <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="10">
         <v>3.25</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <v>20</v>
       </c>
     </row>
@@ -760,89 +760,103 @@
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1">
         <v>0.8125</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>4.75</v>
       </c>
       <c r="E14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>5.5</v>
       </c>
       <c r="G14" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>3.5</v>
       </c>
       <c r="I14" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>3</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L14" s="7">
-        <v>4.25</v>
-      </c>
-      <c r="M14" s="6">
-        <v>21</v>
+      <c r="L14" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="M14" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="1">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="6"/>
+        <v>0.78125</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B3:B4"/>
@@ -857,20 +871,6 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/03.12-14.12.xlsx
+++ b/03.12-14.12.xlsx
@@ -101,12 +101,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="M22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3 часа переработки с первой недели и 1 час в долг</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>сумма</t>
   </si>
@@ -248,19 +272,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M15"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,32 +609,32 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>6.75</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>7</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="6">
         <v>3.25</v>
       </c>
       <c r="K3" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
         <v>3</v>
       </c>
       <c r="M3" s="7">
@@ -618,53 +642,53 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="7"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>6.75</v>
       </c>
       <c r="E6" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>7</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>5</v>
       </c>
       <c r="K6" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>4.25</v>
       </c>
       <c r="M6" s="7">
@@ -672,24 +696,24 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1">
         <v>0.875</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="7"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -718,37 +742,37 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>4.75</v>
       </c>
       <c r="E11" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>0.375</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="6">
         <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>0.6875</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="6">
         <v>3.25</v>
       </c>
       <c r="M11" s="7">
@@ -756,61 +780,61 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1">
         <v>0.8125</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="7"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <v>4.75</v>
       </c>
       <c r="E14" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>5.5</v>
       </c>
       <c r="G14" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>3.5</v>
       </c>
       <c r="I14" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="8">
         <v>3.25</v>
       </c>
       <c r="M14" s="7">
@@ -818,31 +842,190 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="1">
         <v>0.78125</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="7"/>
     </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>43451</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>43452</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>43453</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2">
+        <v>43454</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2">
+        <v>43455</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="5">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="L22" s="8">
+        <v>3</v>
+      </c>
+      <c r="M22" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="42">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="B14:B15"/>
@@ -857,20 +1040,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/03.12-14.12.xlsx
+++ b/03.12-14.12.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>сумма</t>
   </si>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M27" sqref="M27:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,8 +996,135 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>43458</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>43459</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>43460</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2">
+        <v>43461</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="2">
+        <v>43462</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="L27" s="6">
+        <v>3</v>
+      </c>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D30" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J30" s="8">
+        <v>4</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="56">
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -1040,6 +1167,20 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/03.12-14.12.xlsx
+++ b/03.12-14.12.xlsx
@@ -122,6 +122,30 @@
           </rPr>
           <t xml:space="preserve">
 3 часа переработки с первой недели и 1 час в долг</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anna Sharuntsova.EXT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+долг 5,5 часа за ту и эту неделю и субботу</t>
         </r>
       </text>
     </comment>
@@ -575,7 +599,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:M28"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,9 +1123,15 @@
       <c r="J30" s="8">
         <v>4</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="7"/>
+      <c r="K30" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4</v>
+      </c>
+      <c r="M30" s="7">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
@@ -1119,12 +1149,56 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="1">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:B23"/>
@@ -1139,48 +1213,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
